--- a/rayleighk2rm.xlsx
+++ b/rayleighk2rm.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">n</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">sigma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max.iter</t>
   </si>
 </sst>
 </file>
@@ -416,6 +419,9 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -454,6 +460,9 @@
       <c r="L2" t="n">
         <v>10.0285091657623</v>
       </c>
+      <c r="M2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +501,9 @@
       <c r="L3" t="n">
         <v>10.0285091657623</v>
       </c>
+      <c r="M3" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -530,6 +542,9 @@
       <c r="L4" t="n">
         <v>10.1175008155305</v>
       </c>
+      <c r="M4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -568,6 +583,9 @@
       <c r="L5" t="n">
         <v>10.1169672021354</v>
       </c>
+      <c r="M5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -605,6 +623,9 @@
       </c>
       <c r="L6" t="n">
         <v>10.1169672021354</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
